--- a/test_program/test_data/calculate_bug_count_rating_case.xlsx
+++ b/test_program/test_data/calculate_bug_count_rating_case.xlsx
@@ -44,7 +44,7 @@
     <t>test_data</t>
   </si>
   <si>
-    <t>expect_result</t>
+    <t>expect_return_result</t>
   </si>
   <si>
     <t>CBCR_S_0001</t>
@@ -251,7 +251,7 @@
     <t>{"X": "a"}</t>
   </si>
   <si>
-    <t>TypeError("错误：输入参数X必须是数字类型")</t>
+    <t>TypeError("错误：X参数必须是int、float类型")</t>
   </si>
   <si>
     <t>CBCR_E_0003</t>
@@ -290,7 +290,7 @@
     <t>{"X": ""}</t>
   </si>
   <si>
-    <t>ValueError("错误：输入参数X不能为空")</t>
+    <t>ValueError("错误：X参数不能为空")</t>
   </si>
   <si>
     <t>CBCR_E_0007</t>
@@ -1488,8 +1488,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="185" spans="1:6">
+    <row r="20" ht="101" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="51" spans="1:6">
+    <row r="21" ht="34" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -2081,10 +2081,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3 C5:C20 C21:C29 C30:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20 D21:D29 D30:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"正向,反向"</formula1>
     </dataValidation>
   </dataValidations>
